--- a/zero-ecosystem/zero-plugins-extension/zero-exmodule-modulat/zero-exmodule-modulat-domain/src/main/resources/plugins/zero-exmodule-modulat/modulat/BAG_AM.xlsx
+++ b/zero-ecosystem/zero-plugins-extension/zero-exmodule-modulat/zero-exmodule-modulat-domain/src/main/resources/plugins/zero-exmodule-modulat/modulat/BAG_AM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/app-zero/zero-ecotope/zero-ecosystem/zero-plugins-extension/zero-exmodule-modulat/zero-exmodule-modulat-domain/src/main/resources/plugins/zero-exmodule-modulat/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B988645-A299-EC47-B8CF-ACA0834B9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE2D44-26B4-CB45-8591-E6DFDD34A28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-43940" yWindow="2280" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-43940" yWindow="7280" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>key</t>
   </si>
@@ -204,14 +204,6 @@
   </si>
   <si>
     <t>entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入口菜单ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>entryId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -237,17 +229,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,7 +247,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -263,7 +255,7 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -301,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -357,11 +349,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,6 +402,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,9 +431,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +471,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +577,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +719,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -714,52 +730,52 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K2" sqref="K2:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="53.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="13.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="18"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -785,16 +801,14 @@
         <v>41</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -820,47 +834,41 @@
         <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="F5" s="5">
         <v>12300</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="9" t="s">
         <v>1</v>
       </c>
@@ -879,7 +887,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
@@ -914,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -952,7 +960,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
